--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__PFTFamilyWoodinessTRY.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__PFTFamilyWoodinessTRY.xlsx
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>grass</t>
         </is>
       </c>
     </row>
